--- a/Day5/Day_05/drive123.xlsx
+++ b/Day5/Day_05/drive123.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Afree\OneDrive\Desktop\Day5\Day_05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A5B2C1C-1BF9-4CA2-8139-5E91DA67DFA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5AFB10-3456-4E30-B384-B027F4735AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -804,7 +804,7 @@
   <dimension ref="A1:J1002"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -1058,7 +1058,7 @@
     </row>
     <row r="12" spans="1:10" ht="14.25" customHeight="1">
       <c r="A12" s="8">
-        <v>45835</v>
+        <v>45838</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>53</v>
